--- a/biology/Zoologie/Flipper_et_Lopaka/Flipper_et_Lopaka.xlsx
+++ b/biology/Zoologie/Flipper_et_Lopaka/Flipper_et_Lopaka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Flipper et Lopaka (Flipper und Lopaka) est une série télévisée d'animation australienne en 78 épisodes de 24 minutes diffusée entre 1999 et 2005 sur Junior.
 En France, elle a été diffusée à partir du 12 avril 2000 sur TF1 dans TF! Jeunesse dans la case TF! Mercredi.
-En 2008, Studio 100 fait acquisition de la société allemande EM.Entertainment qui était jusqu'alors propriétaire de la série télévisée[1],[2].
+En 2008, Studio 100 fait acquisition de la société allemande EM.Entertainment qui était jusqu'alors propriétaire de la série télévisée,.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La série raconte l'histoire d'un enfant (Lopaka) habitant sur une île avec son village, qui nage dans l'océan pour parler avec ses amis marins dont le dauphin (Flipper) et qui leur arrivent plein d'aventures à cause de la pieuvre (Dexter).
 </t>
@@ -547,7 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Première saison (1999)
+          <t>Première saison (1999)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Quetzo la cité perdue
 Les Secrets de Quetzo
 Le Volcan
@@ -574,7 +594,43 @@
 Le Piège
 Le Monstre de Quetzo
 Le Retour
-Deuxième saison (2001)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Flipper_et_Lopaka</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flipper_et_Lopaka</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2001)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 L'île mystérieuse
 Le démon de Tabou
 L'Éclipse
@@ -601,7 +657,43 @@
 Vacances à Iloka
 Miroir, miroir !
 Le précieux secret
-Troisième saison (2005)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Flipper_et_Lopaka</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flipper_et_Lopaka</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Troisième saison (2005)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La source thermale
 Les pirates des temps modernes
 Bolo, l'insubmersible
@@ -632,77 +724,218 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Flipper_et_Lopaka</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Flipper_et_Lopaka</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Flipper_et_Lopaka</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flipper_et_Lopaka</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Flipper
-Flipper est un jeune dauphin bleu au ventre blanc. Il a sauvé Lopaka de la noyade un soir d'orage et est devenu son meilleur ami. Prince de la cité de Quetzo, il la gouverne quasiment seul car ses parents sont rarement là. Il est également ami avec Ultra, Oti (une loutre), Ray (une raie manta) et Bouffi (un poisson-globe).
-Lopaka
-Lopaka est un jeune Polynésien habitant sur l'île d'Iloka. Depuis que Flipper l'a sauvé de la noyade, il a le pouvoir de comprendre les animaux marins et de respirer sous l'eau, pouvoir qu'il perd brièvement lors de l'épisode 78, "Amis pour a vie". On sait qu'il a un père constructeur de canoës, mais on ignore où est sa mère (même si l'on peut supposer qu'elle est morte). Il est le meilleur ami de Flipper, mais est également ami avec Ultra, Bouffi (un poisson-globe), Ray (une raie manta), Oti (une loutre), Bolo, Nola (deux insulaires de son âge) et Spike (le fils d'une scientifique).
-Dexter
-Dexter est une pieuvre violette. Ennemi juré de Flipper et Lopaka, il passe son temps à inventer des stratagèmes pour tenter de prendre le pouvoir à Quetzo. On sait qu'il a été banni de Quetzo il y a longtemps, mais on en ignore la raison. Il est aidé à la réalisation de ses plans par trois requins et Sornette, un serpent de mer. Il a une sœur nommé Dolorès.
-Bouffi, Oti et Ray
-Bouffi est un poisson globe peureux qui gonfle au moindre bruit.Oti est une loutre violette (en anglais la loutre  ce dit thé otter ,d'où son nom)Ray est une raie pastenague verte ....
-Bolo
-Nola
-Spike
-Capitaine Bernacle Crabe
-Kim
-Simon
-Ultra
-Ultra est un dauphin femelle rose à ventre blanc, ayant des marques violettes sur les yeux et les flancs, et n'apparaissant que dans la saison 3. Elle a été capturée par des scientifiques quand elle était jeune, puis utilisée par les pirates. Elle devient amie avec Flipper en le faisant sortir d'une grotte. Elle retrouve ses parents et sa petite sœur Delta dans l'épisode 76, "Les retrouvailles". Elle est amie avec Flipper, Lopaka, Bouffi, Oti et Ray.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Flipper_et_Lopaka</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Flipper_et_Lopaka</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Flipper</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flipper est un jeune dauphin bleu au ventre blanc. Il a sauvé Lopaka de la noyade un soir d'orage et est devenu son meilleur ami. Prince de la cité de Quetzo, il la gouverne quasiment seul car ses parents sont rarement là. Il est également ami avec Ultra, Oti (une loutre), Ray (une raie manta) et Bouffi (un poisson-globe).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Flipper_et_Lopaka</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flipper_et_Lopaka</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Lopaka</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lopaka est un jeune Polynésien habitant sur l'île d'Iloka. Depuis que Flipper l'a sauvé de la noyade, il a le pouvoir de comprendre les animaux marins et de respirer sous l'eau, pouvoir qu'il perd brièvement lors de l'épisode 78, "Amis pour a vie". On sait qu'il a un père constructeur de canoës, mais on ignore où est sa mère (même si l'on peut supposer qu'elle est morte). Il est le meilleur ami de Flipper, mais est également ami avec Ultra, Bouffi (un poisson-globe), Ray (une raie manta), Oti (une loutre), Bolo, Nola (deux insulaires de son âge) et Spike (le fils d'une scientifique).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Flipper_et_Lopaka</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flipper_et_Lopaka</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dexter</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dexter est une pieuvre violette. Ennemi juré de Flipper et Lopaka, il passe son temps à inventer des stratagèmes pour tenter de prendre le pouvoir à Quetzo. On sait qu'il a été banni de Quetzo il y a longtemps, mais on en ignore la raison. Il est aidé à la réalisation de ses plans par trois requins et Sornette, un serpent de mer. Il a une sœur nommé Dolorès.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Flipper_et_Lopaka</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flipper_et_Lopaka</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bouffi, Oti et Ray</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bouffi est un poisson globe peureux qui gonfle au moindre bruit.Oti est une loutre violette (en anglais la loutre  ce dit thé otter ,d'où son nom)Ray est une raie pastenague verte ....
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Flipper_et_Lopaka</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flipper_et_Lopaka</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ultra</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ultra est un dauphin femelle rose à ventre blanc, ayant des marques violettes sur les yeux et les flancs, et n'apparaissant que dans la saison 3. Elle a été capturée par des scientifiques quand elle était jeune, puis utilisée par les pirates. Elle devient amie avec Flipper en le faisant sortir d'une grotte. Elle retrouve ses parents et sa petite sœur Delta dans l'épisode 76, "Les retrouvailles". Elle est amie avec Flipper, Lopaka, Bouffi, Oti et Ray.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Flipper_et_Lopaka</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flipper_et_Lopaka</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Voix françaises</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Philippe Allard : Lopaka
 Frederik Haùgness : Flipper
@@ -714,31 +947,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Flipper_et_Lopaka</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Flipper_et_Lopaka</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Flipper_et_Lopaka</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flipper_et_Lopaka</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>DVD</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Flipper et Lopaka existe en DVD et jeux vidéo.
 </t>
